--- a/competitionmarkets/markup_data.xlsx
+++ b/competitionmarkets/markup_data.xlsx
@@ -8,24 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Dropbox/My Mac (Harriets-Air.fios-router.home)/Documents/GitHub/bfh-textbook/competitionmarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB062E-F3F1-1448-B798-6508DB5D7342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF856002-3BD0-6D4E-9930-47CEE9CF46AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26700" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="1360" windowWidth="14060" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>markup_2</t>
   </si>
 </sst>
 </file>
@@ -61,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,399 +373,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A48"/>
+      <selection activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1955.04739336493</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1955</v>
       </c>
       <c r="B2">
-        <v>1.2878787878787901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1956.09004739336</v>
+        <v>1.2713754646840101</v>
+      </c>
+      <c r="C2">
+        <f>B2-1</f>
+        <v>0.27137546468401008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1956</v>
       </c>
       <c r="B3">
-        <v>1.2666666666666699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1957.0023696682499</v>
+        <v>1.25650557620818</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C62" si="0">B3-1</f>
+        <v>0.25650557620818004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1957</v>
       </c>
       <c r="B4">
-        <v>1.2606060606060601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1957.91469194313</v>
+        <v>1.2505576208178399</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.25055762081783994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1958</v>
       </c>
       <c r="B5">
-        <v>1.26212121212121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1959.0876777251201</v>
+        <v>1.2520446096654301</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.25204460966543007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1959</v>
       </c>
       <c r="B6">
-        <v>1.2833333333333301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1960</v>
       </c>
       <c r="B7">
-        <v>1.26212121212121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1960.9123222748799</v>
+        <v>1.25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1961</v>
       </c>
       <c r="B8">
-        <v>1.31666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1963.7796208530799</v>
+        <v>1.29219330855019</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.29219330855018999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1962</v>
       </c>
       <c r="B9">
-        <v>1.37424242424242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1964.69194312796</v>
+        <v>1.30895910780669</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.30895910780669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1963</v>
       </c>
       <c r="B10">
-        <v>1.3772727272727301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1966.9075829383901</v>
+        <v>1.33382899628253</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.33382899628253004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1964</v>
       </c>
       <c r="B11">
-        <v>1.3651515151515099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>1968.7322274881501</v>
+        <v>1.34275092936803</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.34275092936802998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1965</v>
       </c>
       <c r="B12">
-        <v>1.37575757575758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>1969.5142180094799</v>
+        <v>1.343</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.34299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1966</v>
       </c>
       <c r="B13">
-        <v>1.3651515151515099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1972.51184834123</v>
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.34400000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1967</v>
       </c>
       <c r="B14">
-        <v>1.3469696969697</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1973.55450236967</v>
+        <v>1.33</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.33000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1968</v>
       </c>
       <c r="B15">
-        <v>1.3106060606060601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1974.336492891</v>
+        <v>1.335</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.33499999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1969</v>
       </c>
       <c r="B16">
-        <v>1.2954545454545501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1976.42180094787</v>
+        <v>1.345</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1970</v>
       </c>
       <c r="B17">
-        <v>1.27727272727273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1977.5947867298601</v>
+        <v>1.33</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.33000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1971</v>
       </c>
       <c r="B18">
-        <v>1.2878787878787901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1979.4194312796201</v>
+        <v>1.32</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1972</v>
       </c>
       <c r="B19">
-        <v>1.2121212121212099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1980.4620853080601</v>
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.31499999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1973</v>
       </c>
       <c r="B20">
-        <v>1.2090909090909101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1982.2867298578201</v>
+        <v>1.3055762081784399</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.30557620817843989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1974</v>
       </c>
       <c r="B21">
-        <v>1.2590909090909099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>1984.3720379146901</v>
+        <v>1.2892193308550199</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.28921933085501994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1975</v>
       </c>
       <c r="B22">
-        <v>1.2909090909090899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1985.02369668246</v>
+        <v>1.27732342007435</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.27732342007434996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1976</v>
       </c>
       <c r="B23">
-        <v>1.33939393939394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1986.3270142180099</v>
+        <v>1.26542750929368</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.26542750929367998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1977</v>
       </c>
       <c r="B24">
-        <v>1.3545454545454501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>1987.10900473934</v>
+        <v>1.26</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1978</v>
       </c>
       <c r="B25">
-        <v>1.41060606060606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>1989.1943127962099</v>
+        <v>1.2653531598512999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.26535315985129992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1979</v>
       </c>
       <c r="B26">
-        <v>1.41060606060606</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1991.01895734597</v>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.24500000000000011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1980</v>
       </c>
       <c r="B27">
-        <v>1.44090909090909</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>1992.84360189573</v>
+        <v>1.21040892193309</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.21040892193309002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1981</v>
       </c>
       <c r="B28">
-        <v>1.4075757575757599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>1994.6682464455</v>
+        <v>1.2044609665427499</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.20446096654274992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1982</v>
       </c>
       <c r="B29">
-        <v>1.4590909090909101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>1995.9715639810399</v>
+        <v>1.22973977695167</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.22973977695167003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1983</v>
       </c>
       <c r="B30">
-        <v>1.4742424242424199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>1997.79620853081</v>
+        <v>1.2475836431226801</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.24758364312268011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1984</v>
       </c>
       <c r="B31">
-        <v>1.5303030303030301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>1998.57819905213</v>
+        <v>1.2639405204461001</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.26394052044610006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1985</v>
       </c>
       <c r="B32">
-        <v>1.5409090909090899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>1999.4905213270099</v>
+        <v>1.2728624535316</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.27286245353159999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1986</v>
       </c>
       <c r="B33">
-        <v>1.51212121212121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>2000.663507109</v>
+        <v>1.31152416356877</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.31152416356877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1987</v>
       </c>
       <c r="B34">
-        <v>1.5106060606060601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>2001.7061611374399</v>
+        <v>1.3249070631970301</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.32490706319703011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1988</v>
       </c>
       <c r="B35">
-        <v>1.5363636363636399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>2002.48815165877</v>
+        <v>1.35315985130112</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.35315985130112004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1989</v>
       </c>
       <c r="B36">
-        <v>1.5303030303030301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>2003.5308056872</v>
+        <v>1.3710037174721199</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.37100371747211991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1990</v>
       </c>
       <c r="B37">
-        <v>1.5363636363636399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>2004.4431279620901</v>
+        <v>1.37</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.37000000000000011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1991</v>
       </c>
       <c r="B38">
-        <v>1.5166666666666699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>2005.4857819905201</v>
+        <v>1.37695167286245</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.37695167286245002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1992</v>
       </c>
       <c r="B39">
-        <v>1.5287878787878799</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>2006.3981042654</v>
+        <v>1.3977695167286199</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.39776951672861993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1993</v>
       </c>
       <c r="B40">
-        <v>1.50454545454545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>2007.18009478673</v>
+        <v>1.3873605947955401</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.38736059479554008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1994</v>
       </c>
       <c r="B41">
-        <v>1.54242424242424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>2008.3530805687201</v>
+        <v>1.3680297397769501</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.36802973977695008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1995</v>
       </c>
       <c r="B42">
-        <v>1.55909090909091</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>2009.2654028436</v>
+        <v>1.3814126394052</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.38141263940519998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1996</v>
       </c>
       <c r="B43">
-        <v>1.5287878787878799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>2010.30805687204</v>
+        <v>1.40817843866171</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.40817843866171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1997</v>
       </c>
       <c r="B44">
-        <v>1.52424242424242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>2011.09004739336</v>
+        <v>1.4215613382899599</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.4215613382899599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1998</v>
       </c>
       <c r="B45">
-        <v>1.53939393939394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>2012.3933649289099</v>
+        <v>1.4453531598513001</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.44535315985130008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1999</v>
       </c>
       <c r="B46">
-        <v>1.5606060606060601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>2013.3056872037901</v>
+        <v>1.4631970260223</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.46319702602229995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2000</v>
       </c>
       <c r="B47">
-        <v>1.6030303030302999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>2014.21800947867</v>
+        <v>1.4765799256505601</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.47657992565056007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2001</v>
       </c>
       <c r="B48">
-        <v>1.7045454545454499</v>
+        <v>1.4498141263940501</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.44981412639405005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2002</v>
+      </c>
+      <c r="B49">
+        <v>1.4483271375464699</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.44832713754646991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2003</v>
+      </c>
+      <c r="B50">
+        <v>1.46914498141264</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.46914498141264005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2004</v>
+      </c>
+      <c r="B51">
+        <v>1.4646840148698901</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.46468401486989008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2005</v>
+      </c>
+      <c r="B52">
+        <v>1.46914498141264</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.46914498141264005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2006</v>
+      </c>
+      <c r="B53">
+        <v>1.4542750929368</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.45427509293680002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2007</v>
+      </c>
+      <c r="B54">
+        <v>1.4646840148698901</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.46468401486989008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2008</v>
+      </c>
+      <c r="B55">
+        <v>1.4453531598513001</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.44535315985130008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2009</v>
+      </c>
+      <c r="B56">
+        <v>1.47806691449814</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.47806691449813998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2010</v>
+      </c>
+      <c r="B57">
+        <v>1.48847583643123</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.48847583643123005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2011</v>
+      </c>
+      <c r="B58">
+        <v>1.4631970260223</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.46319702602229995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2012</v>
+      </c>
+      <c r="B59">
+        <v>1.46171003717472</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.46171003717472003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2013</v>
+      </c>
+      <c r="B60">
+        <v>1.47806691449814</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.47806691449813998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2014</v>
+      </c>
+      <c r="B61">
+        <v>1.48550185873606</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.48550185873606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2015</v>
+      </c>
+      <c r="B62">
+        <v>1.61</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.6100000000000001</v>
       </c>
     </row>
   </sheetData>
